--- a/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
+++ b/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\hydgn\SoHPCCbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\hydgn\SoHPCCbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2D1DB3-56AD-420B-A58E-7967EE7EC440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A2DD0-3A6E-49DF-9F0E-7A230114D7FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="585" windowWidth="24090" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="105" windowWidth="25665" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -40,14 +40,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="147">
   <si>
     <t>ISIC 01T03</t>
   </si>
   <si>
-    <t>ISIC 05T06</t>
-  </si>
-  <si>
     <t>ISIC 07T08</t>
   </si>
   <si>
@@ -72,12 +69,6 @@
     <t>ISIC 22</t>
   </si>
   <si>
-    <t>ISIC 23</t>
-  </si>
-  <si>
-    <t>ISIC 24</t>
-  </si>
-  <si>
     <t>ISIC 25</t>
   </si>
   <si>
@@ -99,9 +90,6 @@
     <t>ISIC 31T33</t>
   </si>
   <si>
-    <t>ISIC 35T39</t>
-  </si>
-  <si>
     <t>ISIC 41T43</t>
   </si>
   <si>
@@ -291,9 +279,6 @@
     <t>Agriculture, forestry and fishing</t>
   </si>
   <si>
-    <t>Mining and extraction of energy producing products</t>
-  </si>
-  <si>
     <t>Mining and quarrying of non-energy producing products</t>
   </si>
   <si>
@@ -318,12 +303,6 @@
     <t>Rubber and plastics products</t>
   </si>
   <si>
-    <t>Other non-metallic mineral products</t>
-  </si>
-  <si>
-    <t>Manufacture of basic metals</t>
-  </si>
-  <si>
     <t>Fabricated metal products, except machinery and equipment</t>
   </si>
   <si>
@@ -345,9 +324,6 @@
     <t>Other manufacturing; repair and installation of machinery and equipment</t>
   </si>
   <si>
-    <t>Electricity, gas, water supply, sewerage, waste and remediation services</t>
-  </si>
-  <si>
     <t>Construction</t>
   </si>
   <si>
@@ -451,6 +427,60 @@
   </si>
   <si>
     <t>Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>ISIC 05</t>
+  </si>
+  <si>
+    <t>Coal mining</t>
+  </si>
+  <si>
+    <t>ISIC 06</t>
+  </si>
+  <si>
+    <t>Oil and gas extraction</t>
+  </si>
+  <si>
+    <t>ISIC 231</t>
+  </si>
+  <si>
+    <t>ISIC 239</t>
+  </si>
+  <si>
+    <t>ISIC 241</t>
+  </si>
+  <si>
+    <t>ISIC 242</t>
+  </si>
+  <si>
+    <t>ISIC 351</t>
+  </si>
+  <si>
+    <t>ISIC 352T353</t>
+  </si>
+  <si>
+    <t>ISIC 36T39</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Cement and other nonmetallic minerals</t>
+  </si>
+  <si>
+    <t>Iron and steel</t>
+  </si>
+  <si>
+    <t>Other metals</t>
+  </si>
+  <si>
+    <t>Electricity generation and distribution</t>
+  </si>
+  <si>
+    <t>Energy pipelines and gas processing</t>
+  </si>
+  <si>
+    <t>Water and waste</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1109,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1224,8 +1254,11 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1827,20 +1860,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1850,27 +1883,27 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="44" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1880,27 +1913,27 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="44" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1910,57 +1943,57 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="42" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="45" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1995,7 +2028,7 @@
         <v>68084000</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="12:13" x14ac:dyDescent="0.25">
@@ -2006,7 +2039,7 @@
         <v>49148000</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="12:13" x14ac:dyDescent="0.25">
@@ -2023,7 +2056,7 @@
         <v>3658000</v>
       </c>
       <c r="M16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="12:13" x14ac:dyDescent="0.25">
@@ -2034,7 +2067,7 @@
         <v>21570000</v>
       </c>
       <c r="M18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.25">
@@ -2048,29 +2081,29 @@
         <v>28492000</v>
       </c>
       <c r="M21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
+        <v>36</v>
+      </c>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
     </row>
     <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
+        <v>37</v>
+      </c>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
     </row>
     <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
@@ -2080,107 +2113,107 @@
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C38" s="5">
         <v>50000</v>
       </c>
-      <c r="D38" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="57"/>
+      <c r="D38" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="58"/>
     </row>
     <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
+      <c r="D39" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C40" s="7">
         <v>2012</v>
       </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="61"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="62"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C41" s="8">
         <v>2010</v>
       </c>
-      <c r="D41" s="62"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="64"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="65"/>
     </row>
     <row r="42" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C42" s="9">
         <v>0.94218268901813196</v>
       </c>
-      <c r="D42" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="64"/>
+      <c r="D42" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="65"/>
       <c r="M42" t="s">
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C43" s="10">
         <v>1.100724186648488</v>
       </c>
-      <c r="D43" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="53"/>
+      <c r="D43" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="54"/>
       <c r="M43" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="N43" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M44" t="s">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="N44" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -2189,44 +2222,44 @@
       <c r="G45" s="12"/>
       <c r="H45" s="13"/>
       <c r="M45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="53.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M46" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C47" s="19">
         <v>47851875</v>
@@ -2243,22 +2276,22 @@
       <c r="G47" s="22"/>
       <c r="H47" s="23"/>
       <c r="I47" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J47" s="46">
         <f>D47/$F$58</f>
         <v>0.4196428571428571</v>
       </c>
       <c r="M47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C48" s="25"/>
       <c r="D48" s="20">
@@ -2274,15 +2307,15 @@
       <c r="H48" s="28"/>
       <c r="J48" s="46"/>
       <c r="M48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C49" s="25">
         <v>9163125</v>
@@ -2299,22 +2332,22 @@
       <c r="G49" s="27"/>
       <c r="H49" s="28"/>
       <c r="I49" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J49" s="46">
         <f t="shared" ref="J49:J57" si="0">D49/$F$58</f>
         <v>8.0357142857142849E-2</v>
       </c>
       <c r="M49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C50" s="25">
         <v>3054375</v>
@@ -2331,22 +2364,22 @@
       <c r="G50" s="27"/>
       <c r="H50" s="28"/>
       <c r="I50" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J50" s="46">
         <f t="shared" si="0"/>
         <v>2.6785714285714284E-2</v>
       </c>
       <c r="M50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N50" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C51" s="25">
         <v>5090625</v>
@@ -2363,22 +2396,22 @@
       <c r="G51" s="27"/>
       <c r="H51" s="28"/>
       <c r="I51" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J51" s="46">
         <f t="shared" si="0"/>
         <v>4.4642857142857137E-2</v>
       </c>
       <c r="M51" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="N51" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C52" s="25">
         <v>5090625</v>
@@ -2395,22 +2428,22 @@
       <c r="G52" s="27"/>
       <c r="H52" s="28"/>
       <c r="I52" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J52" s="46">
         <f t="shared" si="0"/>
         <v>4.4642857142857137E-2</v>
       </c>
       <c r="M52" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="N52" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C53" s="25">
         <v>21380625</v>
@@ -2427,22 +2460,22 @@
       <c r="G53" s="27"/>
       <c r="H53" s="28"/>
       <c r="I53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J53" s="46">
         <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
       <c r="M53" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="N53" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C54" s="25">
         <v>2036250</v>
@@ -2459,22 +2492,22 @@
       <c r="G54" s="27"/>
       <c r="H54" s="28"/>
       <c r="I54" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J54" s="46">
         <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="M54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N54" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C55" s="25">
         <v>5090625</v>
@@ -2491,22 +2524,22 @@
       <c r="G55" s="27"/>
       <c r="H55" s="28"/>
       <c r="I55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J55" s="46">
         <f t="shared" si="0"/>
         <v>4.4642857142857137E-2</v>
       </c>
       <c r="M55" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="N55" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C56" s="25">
         <v>1018125</v>
@@ -2523,22 +2556,22 @@
       <c r="G56" s="27"/>
       <c r="H56" s="28"/>
       <c r="I56" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J56" s="46">
         <f t="shared" si="0"/>
         <v>8.9285714285714281E-3</v>
       </c>
       <c r="M56" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="N56" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C57" s="25">
         <v>2036250</v>
@@ -2555,17 +2588,17 @@
       <c r="G57" s="27"/>
       <c r="H57" s="28"/>
       <c r="I57" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J57" s="46">
         <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="M57" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="N57" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2583,317 +2616,357 @@
       <c r="G58" s="34"/>
       <c r="H58" s="35"/>
       <c r="I58" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J58" s="46">
         <f>(F58-D58)/F58</f>
         <v>0.10714285714285701</v>
       </c>
       <c r="M58" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="N58" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36"/>
       <c r="M59" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N59" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M60" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N60" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C61" s="37">
         <v>900</v>
       </c>
       <c r="M61" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N61" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C62" s="37">
         <v>54.3</v>
       </c>
       <c r="M62" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N62" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="38" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C63" s="39">
         <v>113125</v>
       </c>
       <c r="M63" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N63" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C64" s="40">
         <v>0.47</v>
       </c>
       <c r="M64" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N64" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C65" s="40">
         <v>0.53</v>
       </c>
       <c r="M65" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N65" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="41" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C66" s="40">
         <v>0.09</v>
       </c>
       <c r="M66" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="N66" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="41" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C67" s="40">
         <v>0.03</v>
       </c>
       <c r="M67" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="N67" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="41" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C68" s="40">
         <v>0.05</v>
       </c>
       <c r="M68" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="N68" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C69" s="40">
         <v>0.05</v>
       </c>
       <c r="M69" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N69" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="41" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C70" s="40">
         <v>0.21</v>
       </c>
       <c r="M70" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N70" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="41" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C71" s="40">
         <v>0.02</v>
       </c>
       <c r="M71" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N71" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="41" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C72" s="40">
         <v>0.05</v>
       </c>
       <c r="M72" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N72" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="41" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C73" s="40">
         <v>0.01</v>
       </c>
       <c r="M73" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N73" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="41" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C74" s="40">
         <v>0.02</v>
       </c>
       <c r="M74" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N74" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M75" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N75" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M76" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N76" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M77" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N77" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M78" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N78" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="11:12" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M79" t="s">
+        <v>26</v>
+      </c>
+      <c r="N79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M80" t="s">
+        <v>27</v>
+      </c>
+      <c r="N80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="M81" t="s">
+        <v>28</v>
+      </c>
+      <c r="N81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="M82" t="s">
+        <v>29</v>
+      </c>
+      <c r="N82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="M83" t="s">
+        <v>30</v>
+      </c>
+      <c r="N83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K86" s="48">
         <v>1088450000</v>
       </c>
       <c r="L86" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="11:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K87" s="48">
         <v>483000000</v>
       </c>
       <c r="L87" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="11:12" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K88" s="48"/>
     </row>
-    <row r="89" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K89" s="48"/>
     </row>
-    <row r="90" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K90" s="48">
         <v>87900000</v>
       </c>
       <c r="L90" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="11:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K91" s="48"/>
     </row>
-    <row r="92" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K92" s="48">
         <v>250600000</v>
       </c>
       <c r="L92" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="11:12" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K93" s="48"/>
     </row>
-    <row r="94" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K94" s="48"/>
     </row>
-    <row r="95" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K95" s="48">
         <v>191000000</v>
       </c>
       <c r="L95" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="11:11" x14ac:dyDescent="0.25">
@@ -2928,893 +3001,1011 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="10.7109375" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" customWidth="1"/>
+    <col min="28" max="43" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA1" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB1" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AD1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AE1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AF1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AG1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AH1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AI1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AJ1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AK1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AL1" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AM1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AN1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AO1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AP1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AQ1" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" t="s">
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="B2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,B1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,C1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,D1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,E1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,F1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,G1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,H1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,I1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,J1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,K1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,L1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,M1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,N1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,O1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,P1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,Q1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,R1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,S1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,T1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,U1,Data!$J$47:$J$58)</f>
+        <v>0.20535714285714285</v>
+      </c>
+      <c r="V2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,V1,Data!$J$47:$J$58)</f>
+        <v>0.66964285714285687</v>
+      </c>
+      <c r="W2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,W1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="X2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,X1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,Y1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,Z1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AA1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AB1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AC1,Data!$J$47:$J$58)</f>
+        <v>0.12499999999999986</v>
+      </c>
+      <c r="AD2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AD1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AE1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AF1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AG1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AH1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AI1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AJ1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AK2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AK1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AL2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AL1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AM2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AM1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AN2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AN1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AO2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AO1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AP2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AP1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="50">
+        <f>SUMIF(Data!$I$47:$I$58,AQ1,Data!$J$47:$J$58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="B3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!B1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!C1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!D1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!E1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!F1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!G1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!H1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!I1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!J1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!K1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!L1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!M1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!N1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!O1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!P1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Q1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!R1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!S1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!T1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!U1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!V1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0.41966165941316863</v>
+      </c>
+      <c r="W3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!W1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!X1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Y1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Z1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AA1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AB1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AC1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0.41367167392016474</v>
+      </c>
+      <c r="AD3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AD1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AE1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AF1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AG1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AH1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AI1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AJ1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AK3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AK1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AL1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AM1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AN1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AO1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AP1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="50">
+        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AQ1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="B4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,B1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,C1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,D1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,E1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,F1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,G1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,H1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,I1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,J1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,K1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,L1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,M1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,N1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,O1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,P1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,Q1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,R1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,S1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,T1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,U1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,V1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0.55991337252195439</v>
+      </c>
+      <c r="W4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,W1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,X1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,Y1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,Z1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AA1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AB1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AC1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0.34917537304552704</v>
+      </c>
+      <c r="AD4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AD1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AE1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AF1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AG1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AH1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AI1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AJ1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>9.0911254432518629E-2</v>
+      </c>
+      <c r="AK4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AK1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AL1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AM1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AN1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AO1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AP1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="50">
+        <f>SUMIF(Data!$L$86:$L$95,AQ1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B5" s="50">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="50">
+        <f t="shared" ref="C5:AQ5" si="0">C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="50">
+        <f t="shared" ref="D5" si="1">D4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="50">
+        <f t="shared" ref="M5" si="2">M4</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="50">
+        <f t="shared" ref="P5" si="3">P4</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="50">
+        <f t="shared" ref="R5" si="4">R4</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="50">
+        <f t="shared" si="0"/>
+        <v>0.55991337252195439</v>
+      </c>
+      <c r="W5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="50">
+        <f t="shared" ref="AA5:AB5" si="5">AA4</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="50">
+        <f t="shared" si="0"/>
+        <v>0.34917537304552704</v>
+      </c>
+      <c r="AD5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="50">
+        <f t="shared" si="0"/>
+        <v>9.0911254432518629E-2</v>
+      </c>
+      <c r="AK5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,B1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,C1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,D1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,E1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,F1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,G1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,H1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,I1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,J1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,K1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,L1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,M1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,N1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,O1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,P1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,Q1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,R1,Data!$J$47:$J$58)</f>
-        <v>0.20535714285714285</v>
-      </c>
-      <c r="S2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,S1,Data!$J$47:$J$58)</f>
-        <v>0.66964285714285687</v>
-      </c>
-      <c r="T2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,T1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,U1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,V1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="W2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,W1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,X1,Data!$J$47:$J$58)</f>
-        <v>0.12499999999999986</v>
-      </c>
-      <c r="Y2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,Y1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,Z1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,AA1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,AB1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,AC1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,AD1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,AE1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,AF1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,AG1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AH2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,AH1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AI2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,AI1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,AJ1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AK2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,AK1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AL2" s="49">
-        <f>SUMIF(Data!$I$47:$I$58,AL1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!B1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!C1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!D1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!E1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!F1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!G1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!H1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!I1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!J1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!K1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!L1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!M1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!N1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!O1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!P1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Q1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!R1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!S1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0.41966165941316863</v>
-      </c>
-      <c r="T3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!T1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!U1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!V1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!W1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!X1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0.41367167392016474</v>
-      </c>
-      <c r="Y3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Y1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Z1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AA1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AB1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AC1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AD1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AE1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AF3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AF1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AG1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AH1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AI3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AI1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AJ1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AK3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AK1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AL3" s="49">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AL1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,B1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,C1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,D1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,E1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,F1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,G1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,H1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,I1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,J1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,K1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,L1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,M1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,N1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,O1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,P1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,Q1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,R1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,S1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+      <c r="B6" s="50">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="50">
+        <f t="shared" ref="C6:AQ6" si="6">C4</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="50">
+        <f t="shared" ref="D6" si="7">D4</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="50">
+        <f t="shared" ref="M6" si="8">M4</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="50">
+        <f t="shared" ref="P6" si="9">P4</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="50">
+        <f t="shared" ref="R6" si="10">R4</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="50">
+        <f t="shared" si="6"/>
         <v>0.55991337252195439</v>
       </c>
-      <c r="T4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,T1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,U1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,V1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,W1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="X4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,X1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+      <c r="W6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="50">
+        <f t="shared" ref="AA6:AB6" si="11">AA4</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="50">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="50">
+        <f t="shared" si="6"/>
         <v>0.34917537304552704</v>
       </c>
-      <c r="Y4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,Y1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,Z1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,AA1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,AB1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,AC1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,AD1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,AE1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+      <c r="AD6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="50">
+        <f t="shared" si="6"/>
         <v>9.0911254432518629E-2</v>
       </c>
-      <c r="AF4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,AF1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,AG1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,AH1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,AI1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,AJ1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AK4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,AK1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AL4" s="49">
-        <f>SUMIF(Data!$L$86:$L$95,AL1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="49">
-        <f>B4</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="49">
-        <f t="shared" ref="C5:AL5" si="0">C4</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="49">
-        <f t="shared" ref="L5" si="1">L4</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="49">
-        <f t="shared" si="0"/>
-        <v>0.55991337252195439</v>
-      </c>
-      <c r="T5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="49">
-        <f t="shared" si="0"/>
-        <v>0.34917537304552704</v>
-      </c>
-      <c r="Y5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="49">
-        <f t="shared" si="0"/>
-        <v>9.0911254432518629E-2</v>
-      </c>
-      <c r="AF5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL5" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="49">
-        <f>B4</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="49">
-        <f t="shared" ref="C6:AL6" si="2">C4</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="49">
-        <f t="shared" ref="L6" si="3">L4</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="49">
-        <f t="shared" si="2"/>
-        <v>0.55991337252195439</v>
-      </c>
-      <c r="T6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="49">
-        <f t="shared" si="2"/>
-        <v>0.34917537304552704</v>
-      </c>
-      <c r="Y6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="49">
-        <f t="shared" si="2"/>
-        <v>9.0911254432518629E-2</v>
-      </c>
-      <c r="AF6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AK6" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL6" s="49">
-        <f t="shared" si="2"/>
+      <c r="AK6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="50">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>

--- a/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
+++ b/InputData/hydgn/SoHPCCbRIC/Share of Hydrogen Production Capital Costs by Recipient ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\hydgn\SoHPCCbRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\hydgn\SoHPCCbRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A2DD0-3A6E-49DF-9F0E-7A230114D7FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2D1DB3-56AD-420B-A58E-7967EE7EC440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="105" windowWidth="25665" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="585" windowWidth="24090" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -40,11 +40,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="137">
   <si>
     <t>ISIC 01T03</t>
   </si>
   <si>
+    <t>ISIC 05T06</t>
+  </si>
+  <si>
     <t>ISIC 07T08</t>
   </si>
   <si>
@@ -69,6 +72,12 @@
     <t>ISIC 22</t>
   </si>
   <si>
+    <t>ISIC 23</t>
+  </si>
+  <si>
+    <t>ISIC 24</t>
+  </si>
+  <si>
     <t>ISIC 25</t>
   </si>
   <si>
@@ -90,6 +99,9 @@
     <t>ISIC 31T33</t>
   </si>
   <si>
+    <t>ISIC 35T39</t>
+  </si>
+  <si>
     <t>ISIC 41T43</t>
   </si>
   <si>
@@ -279,6 +291,9 @@
     <t>Agriculture, forestry and fishing</t>
   </si>
   <si>
+    <t>Mining and extraction of energy producing products</t>
+  </si>
+  <si>
     <t>Mining and quarrying of non-energy producing products</t>
   </si>
   <si>
@@ -303,6 +318,12 @@
     <t>Rubber and plastics products</t>
   </si>
   <si>
+    <t>Other non-metallic mineral products</t>
+  </si>
+  <si>
+    <t>Manufacture of basic metals</t>
+  </si>
+  <si>
     <t>Fabricated metal products, except machinery and equipment</t>
   </si>
   <si>
@@ -324,6 +345,9 @@
     <t>Other manufacturing; repair and installation of machinery and equipment</t>
   </si>
   <si>
+    <t>Electricity, gas, water supply, sewerage, waste and remediation services</t>
+  </si>
+  <si>
     <t>Construction</t>
   </si>
   <si>
@@ -427,60 +451,6 @@
   </si>
   <si>
     <t>Pharmaceuticals</t>
-  </si>
-  <si>
-    <t>ISIC 05</t>
-  </si>
-  <si>
-    <t>Coal mining</t>
-  </si>
-  <si>
-    <t>ISIC 06</t>
-  </si>
-  <si>
-    <t>Oil and gas extraction</t>
-  </si>
-  <si>
-    <t>ISIC 231</t>
-  </si>
-  <si>
-    <t>ISIC 239</t>
-  </si>
-  <si>
-    <t>ISIC 241</t>
-  </si>
-  <si>
-    <t>ISIC 242</t>
-  </si>
-  <si>
-    <t>ISIC 351</t>
-  </si>
-  <si>
-    <t>ISIC 352T353</t>
-  </si>
-  <si>
-    <t>ISIC 36T39</t>
-  </si>
-  <si>
-    <t>Glass</t>
-  </si>
-  <si>
-    <t>Cement and other nonmetallic minerals</t>
-  </si>
-  <si>
-    <t>Iron and steel</t>
-  </si>
-  <si>
-    <t>Other metals</t>
-  </si>
-  <si>
-    <t>Electricity generation and distribution</t>
-  </si>
-  <si>
-    <t>Energy pipelines and gas processing</t>
-  </si>
-  <si>
-    <t>Water and waste</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1079,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1254,11 +1224,8 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1860,20 +1827,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1883,27 +1850,27 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="44" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1913,27 +1880,27 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="42" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="44" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1943,57 +1910,57 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="42" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="45" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +1995,7 @@
         <v>68084000</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="12:13" x14ac:dyDescent="0.25">
@@ -2039,7 +2006,7 @@
         <v>49148000</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="12:13" x14ac:dyDescent="0.25">
@@ -2056,7 +2023,7 @@
         <v>3658000</v>
       </c>
       <c r="M16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="12:13" x14ac:dyDescent="0.25">
@@ -2067,7 +2034,7 @@
         <v>21570000</v>
       </c>
       <c r="M18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="12:13" x14ac:dyDescent="0.25">
@@ -2081,29 +2048,29 @@
         <v>28492000</v>
       </c>
       <c r="M21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
+        <v>40</v>
+      </c>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
     </row>
     <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
+        <v>41</v>
+      </c>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
     </row>
     <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
@@ -2113,107 +2080,107 @@
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C38" s="5">
         <v>50000</v>
       </c>
-      <c r="D38" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="58"/>
+      <c r="D38" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="57"/>
     </row>
     <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
+      <c r="D39" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C40" s="7">
         <v>2012</v>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="62"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="61"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C41" s="8">
         <v>2010</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="65"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
     </row>
     <row r="42" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C42" s="9">
         <v>0.94218268901813196</v>
       </c>
-      <c r="D42" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="65"/>
+      <c r="D42" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="64"/>
       <c r="M42" t="s">
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C43" s="10">
         <v>1.100724186648488</v>
       </c>
-      <c r="D43" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
+      <c r="D43" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="53"/>
       <c r="M43" t="s">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M44" t="s">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -2222,44 +2189,44 @@
       <c r="G45" s="12"/>
       <c r="H45" s="13"/>
       <c r="M45" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="53.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M46" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C47" s="19">
         <v>47851875</v>
@@ -2276,22 +2243,22 @@
       <c r="G47" s="22"/>
       <c r="H47" s="23"/>
       <c r="I47" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J47" s="46">
         <f>D47/$F$58</f>
         <v>0.4196428571428571</v>
       </c>
       <c r="M47" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="24" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C48" s="25"/>
       <c r="D48" s="20">
@@ -2307,15 +2274,15 @@
       <c r="H48" s="28"/>
       <c r="J48" s="46"/>
       <c r="M48" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N48" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="29" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C49" s="25">
         <v>9163125</v>
@@ -2332,22 +2299,22 @@
       <c r="G49" s="27"/>
       <c r="H49" s="28"/>
       <c r="I49" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J49" s="46">
         <f t="shared" ref="J49:J57" si="0">D49/$F$58</f>
         <v>8.0357142857142849E-2</v>
       </c>
       <c r="M49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N49" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C50" s="25">
         <v>3054375</v>
@@ -2364,22 +2331,22 @@
       <c r="G50" s="27"/>
       <c r="H50" s="28"/>
       <c r="I50" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J50" s="46">
         <f t="shared" si="0"/>
         <v>2.6785714285714284E-2</v>
       </c>
       <c r="M50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N50" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C51" s="25">
         <v>5090625</v>
@@ -2396,22 +2363,22 @@
       <c r="G51" s="27"/>
       <c r="H51" s="28"/>
       <c r="I51" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J51" s="46">
         <f t="shared" si="0"/>
         <v>4.4642857142857137E-2</v>
       </c>
       <c r="M51" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="N51" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C52" s="25">
         <v>5090625</v>
@@ -2428,22 +2395,22 @@
       <c r="G52" s="27"/>
       <c r="H52" s="28"/>
       <c r="I52" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J52" s="46">
         <f t="shared" si="0"/>
         <v>4.4642857142857137E-2</v>
       </c>
       <c r="M52" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="N52" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="29" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C53" s="25">
         <v>21380625</v>
@@ -2460,22 +2427,22 @@
       <c r="G53" s="27"/>
       <c r="H53" s="28"/>
       <c r="I53" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J53" s="46">
         <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
       <c r="M53" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="N53" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C54" s="25">
         <v>2036250</v>
@@ -2492,22 +2459,22 @@
       <c r="G54" s="27"/>
       <c r="H54" s="28"/>
       <c r="I54" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J54" s="46">
         <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="M54" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N54" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="29" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C55" s="25">
         <v>5090625</v>
@@ -2524,22 +2491,22 @@
       <c r="G55" s="27"/>
       <c r="H55" s="28"/>
       <c r="I55" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J55" s="46">
         <f t="shared" si="0"/>
         <v>4.4642857142857137E-2</v>
       </c>
       <c r="M55" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="N55" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="29" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C56" s="25">
         <v>1018125</v>
@@ -2556,22 +2523,22 @@
       <c r="G56" s="27"/>
       <c r="H56" s="28"/>
       <c r="I56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="46">
+        <f t="shared" si="0"/>
+        <v>8.9285714285714281E-3</v>
+      </c>
+      <c r="M56" t="s">
         <v>12</v>
       </c>
-      <c r="J56" s="46">
-        <f t="shared" si="0"/>
-        <v>8.9285714285714281E-3</v>
-      </c>
-      <c r="M56" t="s">
-        <v>134</v>
-      </c>
       <c r="N56" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="29" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C57" s="25">
         <v>2036250</v>
@@ -2588,17 +2555,17 @@
       <c r="G57" s="27"/>
       <c r="H57" s="28"/>
       <c r="I57" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J57" s="46">
         <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="M57" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="N57" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2616,357 +2583,317 @@
       <c r="G58" s="34"/>
       <c r="H58" s="35"/>
       <c r="I58" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J58" s="46">
         <f>(F58-D58)/F58</f>
         <v>0.10714285714285701</v>
       </c>
       <c r="M58" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="N58" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36"/>
       <c r="M59" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N59" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M60" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N60" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="37" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C61" s="37">
         <v>900</v>
       </c>
       <c r="M61" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N61" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="38" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C62" s="37">
         <v>54.3</v>
       </c>
       <c r="M62" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N62" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="38" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C63" s="39">
         <v>113125</v>
       </c>
       <c r="M63" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N63" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="37" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C64" s="40">
         <v>0.47</v>
       </c>
       <c r="M64" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N64" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C65" s="40">
         <v>0.53</v>
       </c>
       <c r="M65" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N65" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="41" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C66" s="40">
         <v>0.09</v>
       </c>
       <c r="M66" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="N66" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C67" s="40">
         <v>0.03</v>
       </c>
       <c r="M67" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="N67" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="41" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C68" s="40">
         <v>0.05</v>
       </c>
       <c r="M68" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="N68" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C69" s="40">
         <v>0.05</v>
       </c>
       <c r="M69" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N69" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="41" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C70" s="40">
         <v>0.21</v>
       </c>
       <c r="M70" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N70" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C71" s="40">
         <v>0.02</v>
       </c>
       <c r="M71" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N71" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="41" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C72" s="40">
         <v>0.05</v>
       </c>
       <c r="M72" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N72" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="41" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C73" s="40">
         <v>0.01</v>
       </c>
       <c r="M73" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N73" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="41" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C74" s="40">
         <v>0.02</v>
       </c>
       <c r="M74" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N74" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M75" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N75" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M76" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N76" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M77" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N77" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M78" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M79" t="s">
-        <v>26</v>
-      </c>
-      <c r="N79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M80" t="s">
-        <v>27</v>
-      </c>
-      <c r="N80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="M81" t="s">
-        <v>28</v>
-      </c>
-      <c r="N81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="M82" t="s">
-        <v>29</v>
-      </c>
-      <c r="N82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="M83" t="s">
-        <v>30</v>
-      </c>
-      <c r="N83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="11:14" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K86" s="48">
         <v>1088450000</v>
       </c>
       <c r="L86" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="11:14" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K87" s="48">
         <v>483000000</v>
       </c>
       <c r="L87" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="11:14" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K88" s="48"/>
     </row>
-    <row r="89" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K89" s="48"/>
     </row>
-    <row r="90" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K90" s="48">
         <v>87900000</v>
       </c>
       <c r="L90" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="11:14" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K91" s="48"/>
     </row>
-    <row r="92" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K92" s="48">
         <v>250600000</v>
       </c>
       <c r="L92" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="11:14" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K93" s="48"/>
     </row>
-    <row r="94" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K94" s="48"/>
     </row>
-    <row r="95" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K95" s="48">
         <v>191000000</v>
       </c>
       <c r="L95" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="11:11" x14ac:dyDescent="0.25">
@@ -3001,1011 +2928,893 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="26" width="10.7109375" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" customWidth="1"/>
-    <col min="28" max="43" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="51" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" s="51" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="K1" t="s">
         <v>133</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="L1" t="s">
         <v>134</v>
       </c>
-      <c r="Q1" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="R1" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="S1" s="51" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="51" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="51" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA1" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB1" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC1" s="51" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="AD1" s="51" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="51" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="AF1" s="51" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" s="51" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" s="51" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="51" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="51" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="51" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="51" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="51" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="AN1" s="51" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
-      <c r="AO1" s="51" t="s">
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AP1" s="51" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
-      <c r="AQ1" s="51" t="s">
+      <c r="AH1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AI1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="50">
+        <v>35</v>
+      </c>
+      <c r="B2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,B1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,C1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,D1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,E1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,F1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,G1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="50">
+      <c r="H2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,H1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="50">
+      <c r="I2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,I1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="50">
+      <c r="J2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,J1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="50">
+      <c r="K2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,K1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="50">
+      <c r="L2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,L1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="50">
+      <c r="M2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,M1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="50">
+      <c r="N2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,N1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="50">
+      <c r="O2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,O1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="P2" s="50">
+      <c r="P2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,P1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="50">
+      <c r="Q2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,Q1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="R2" s="50">
+      <c r="R2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,R1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="50">
+        <v>0.20535714285714285</v>
+      </c>
+      <c r="S2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,S1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="50">
+        <v>0.66964285714285687</v>
+      </c>
+      <c r="T2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,T1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="U2" s="50">
+      <c r="U2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,U1,Data!$J$47:$J$58)</f>
-        <v>0.20535714285714285</v>
-      </c>
-      <c r="V2" s="50">
+        <v>0</v>
+      </c>
+      <c r="V2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,V1,Data!$J$47:$J$58)</f>
-        <v>0.66964285714285687</v>
-      </c>
-      <c r="W2" s="50">
+        <v>0</v>
+      </c>
+      <c r="W2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,W1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="X2" s="50">
+      <c r="X2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,X1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="50">
+        <v>0.12499999999999986</v>
+      </c>
+      <c r="Y2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,Y1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="Z2" s="50">
+      <c r="Z2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,Z1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="50">
+      <c r="AA2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,AA1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="50">
+      <c r="AB2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,AB1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="AC2" s="50">
+      <c r="AC2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,AC1,Data!$J$47:$J$58)</f>
-        <v>0.12499999999999986</v>
-      </c>
-      <c r="AD2" s="50">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,AD1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="50">
+      <c r="AE2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,AE1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="AF2" s="50">
+      <c r="AF2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,AF1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="AG2" s="50">
+      <c r="AG2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,AG1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="AH2" s="50">
+      <c r="AH2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,AH1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="AI2" s="50">
+      <c r="AI2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,AI1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="AJ2" s="50">
+      <c r="AJ2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,AJ1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="AK2" s="50">
+      <c r="AK2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,AK1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="AL2" s="50">
+      <c r="AL2" s="49">
         <f>SUMIF(Data!$I$47:$I$58,AL1,Data!$J$47:$J$58)</f>
         <v>0</v>
       </c>
-      <c r="AM2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AM1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AN2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AN1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AO2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AO1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AP1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="50">
-        <f>SUMIF(Data!$I$47:$I$58,AQ1,Data!$J$47:$J$58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="50">
+        <v>36</v>
+      </c>
+      <c r="B3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!B1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!C1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!D1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!E1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!F1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!G1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="50">
+      <c r="H3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!H1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!I1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="50">
+      <c r="J3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!J1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!K1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="50">
+      <c r="L3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!L1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="50">
+      <c r="M3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!M1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="50">
+      <c r="N3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!N1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="50">
+      <c r="O3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!O1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="50">
+      <c r="P3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!P1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="50">
+      <c r="Q3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Q1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="50">
+      <c r="R3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!R1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="50">
+      <c r="S3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!S1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="50">
+        <v>0.41966165941316863</v>
+      </c>
+      <c r="T3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!T1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="50">
+      <c r="U3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!U1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="50">
+      <c r="V3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!V1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0.41966165941316863</v>
-      </c>
-      <c r="W3" s="50">
+        <v>0</v>
+      </c>
+      <c r="W3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!W1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="50">
+      <c r="X3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!X1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="50">
+        <v>0.41367167392016474</v>
+      </c>
+      <c r="Y3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Y1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="50">
+      <c r="Z3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!Z1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="50">
+      <c r="AA3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AA1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="50">
+      <c r="AB3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AB1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="50">
+      <c r="AC3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AC1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0.41367167392016474</v>
-      </c>
-      <c r="AD3" s="50">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AD1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="50">
+      <c r="AE3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AE1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="50">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AF3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AF1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="50">
+      <c r="AG3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AG1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="50">
+      <c r="AH3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AH1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="50">
+      <c r="AI3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AI1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="50">
+      <c r="AJ3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AJ1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AK3" s="50">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AK1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="AL3" s="50">
+      <c r="AL3" s="49">
         <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AL1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AM1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AN3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AN1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AO3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AO1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AP1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="50">
-        <f>SUMIF(Data!$M$10:$M$21,SoHPCCbRIC!AQ1,Data!$L$10:$L$21)/SUM(Data!$L$10:$L$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="50">
+        <v>37</v>
+      </c>
+      <c r="B4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,B1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,C1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,D1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,E1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,F1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,G1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,H1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="50">
+      <c r="I4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,I1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,J1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,K1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="50">
+      <c r="L4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,L1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="50">
+      <c r="M4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,M1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="50">
+      <c r="N4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,N1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="50">
+      <c r="O4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,O1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="50">
+      <c r="P4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,P1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="50">
+      <c r="Q4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,Q1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="50">
+      <c r="R4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,R1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="50">
+      <c r="S4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,S1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="50">
+        <v>0.55991337252195439</v>
+      </c>
+      <c r="T4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,T1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="50">
+      <c r="U4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,U1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
         <v>0</v>
       </c>
-      <c r="V4" s="50">
+      <c r="V4" s="49">
         <f>SUMIF(Data!$L$86:$L$95,V1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="49">
+        <f>SUMIF(Data!$L$86:$L$95,W1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="49">
+        <f>SUMIF(Data!$L$86:$L$95,X1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0.34917537304552704</v>
+      </c>
+      <c r="Y4" s="49">
+        <f>SUMIF(Data!$L$86:$L$95,Y1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="49">
+        <f>SUMIF(Data!$L$86:$L$95,Z1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="49">
+        <f>SUMIF(Data!$L$86:$L$95,AA1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="49">
+        <f>SUMIF(Data!$L$86:$L$95,AB1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="49">
+        <f>SUMIF(Data!$L$86:$L$95,AC1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="49">
+        <f>SUMIF(Data!$L$86:$L$95,AD1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="49">
+        <f>SUMIF(Data!$L$86:$L$95,AE1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>9.0911254432518629E-2</v>
+      </c>
+      <c r="AF4" s="49">
+        <f>SUMIF(Data!$L$86:$L$95,AF1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="49">
+        <f>SUMIF(Data!$L$86:$L$95,AG1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="49">
+        <f>SUMIF(Data!$L$86:$L$95,AH1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="49">
+        <f>SUMIF(Data!$L$86:$L$95,AI1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="49">
+        <f>SUMIF(Data!$L$86:$L$95,AJ1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="49">
+        <f>SUMIF(Data!$L$86:$L$95,AK1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="49">
+        <f>SUMIF(Data!$L$86:$L$95,AL1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="49">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="49">
+        <f t="shared" ref="C5:AL5" si="0">C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="49">
+        <f t="shared" ref="L5" si="1">L4</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="49">
+        <f t="shared" si="0"/>
         <v>0.55991337252195439</v>
       </c>
-      <c r="W4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,W1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="X4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,X1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,Y1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,Z1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AA1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AB1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AC1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+      <c r="T5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="49">
+        <f t="shared" si="0"/>
         <v>0.34917537304552704</v>
       </c>
-      <c r="AD4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AD1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AE1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AF1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AG1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AH1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AI1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AJ1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
+      <c r="Y5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="49">
+        <f t="shared" si="0"/>
         <v>9.0911254432518629E-2</v>
       </c>
-      <c r="AK4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AK1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AL4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AL1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AM4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AM1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AN4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AN1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AO4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AO1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AP4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AP1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="50">
-        <f>SUMIF(Data!$L$86:$L$95,AQ1,Data!$K$86:$K$95)/SUM(Data!$K$86:$K$95)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="50">
+      <c r="AF5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="49">
         <f>B4</f>
         <v>0</v>
       </c>
-      <c r="C5" s="50">
-        <f t="shared" ref="C5:AQ5" si="0">C4</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="50">
-        <f t="shared" ref="D5" si="1">D4</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="50">
-        <f t="shared" ref="M5" si="2">M4</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="50">
-        <f t="shared" ref="P5" si="3">P4</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="50">
-        <f t="shared" ref="R5" si="4">R4</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="50">
-        <f t="shared" si="0"/>
+      <c r="C6" s="49">
+        <f t="shared" ref="C6:AL6" si="2">C4</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="49">
+        <f t="shared" ref="L6" si="3">L4</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="49">
+        <f t="shared" si="2"/>
         <v>0.55991337252195439</v>
       </c>
-      <c r="W5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="50">
-        <f t="shared" ref="AA5:AB5" si="5">AA4</f>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="50">
-        <f t="shared" si="0"/>
+      <c r="T6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="49">
+        <f t="shared" si="2"/>
         <v>0.34917537304552704</v>
       </c>
-      <c r="AD5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="50">
-        <f t="shared" si="0"/>
+      <c r="Y6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="49">
+        <f t="shared" si="2"/>
         <v>9.0911254432518629E-2</v>
       </c>
-      <c r="AK5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AM5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AN5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="50">
-        <f>B4</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="50">
-        <f t="shared" ref="C6:AQ6" si="6">C4</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="50">
-        <f t="shared" ref="D6" si="7">D4</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="50">
-        <f t="shared" ref="M6" si="8">M4</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="50">
-        <f t="shared" ref="P6" si="9">P4</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="50">
-        <f t="shared" ref="R6" si="10">R4</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="50">
-        <f t="shared" si="6"/>
-        <v>0.55991337252195439</v>
-      </c>
-      <c r="W6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="50">
-        <f t="shared" ref="AA6:AB6" si="11">AA4</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="50">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="50">
-        <f t="shared" si="6"/>
-        <v>0.34917537304552704</v>
-      </c>
-      <c r="AD6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="50">
-        <f t="shared" si="6"/>
-        <v>9.0911254432518629E-2</v>
-      </c>
-      <c r="AK6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AM6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AN6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AP6" s="50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="50">
-        <f t="shared" si="6"/>
+      <c r="AF6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="49">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
